--- a/biology/Botanique/Heckeldora/Heckeldora.xlsx
+++ b/biology/Botanique/Heckeldora/Heckeldora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heckeldora est un genre de plantes de la famille des Meliaceae.
-Publié pour la première fois en 1897, il est nommé d'après le botaniste Édouard Heckel, spécialiste des plantes tropicales[2].
+Publié pour la première fois en 1897, il est nommé d'après le botaniste Édouard Heckel, spécialiste des plantes tropicales.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (24 octobre 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (24 octobre 2017) :
 Heckeldora jongkindii J.J.de Wilde
 Heckeldora ledermannii (Harms) J.J.de Wilde
 Heckeldora leonensis (Hutch. &amp; Dalziel) E.J.M.Koenen
@@ -522,7 +536,7 @@
 Heckeldora staudtii (Harms) Staner
 Heckeldora trifoliolata J.J.de Wilde
 Heckeldora zenkeri (Harms) Staner
-Selon NCBI  (24 octobre 2017)[4] :
+Selon NCBI  (24 octobre 2017) :
 Heckeldora jongkindii
 Heckeldora ledermannii
 Heckeldora leonensis
@@ -530,10 +544,10 @@
 Heckeldora staudtii
 Heckeldora trifoliolata
 Heckeldora zenkeri
-Selon The Plant List            (24 octobre 2017)[5] :
+Selon The Plant List            (24 octobre 2017) :
 Heckeldora staudtii (Harms) Staner
 Heckeldora zenkeri (Harms) Staner
-Selon Tropicos                                           (24 octobre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Heckeldora angustifolia Pierre
 Heckeldora latifolia Pierre
 Heckeldora ledermannii (Harms) J.J. de Wilde
